--- a/data/metrics.xlsx
+++ b/data/metrics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="BABA" r:id="rId4"/>
+    <sheet sheetId="1" name="PDD" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -67,23 +67,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="62.7"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -93,34 +89,22 @@
         </is>
       </c>
       <c r="B1" s="2">
-        <v>44651.0</v>
+        <v>44561.0</v>
       </c>
       <c r="C1" s="2">
-        <v>44286.0</v>
+        <v>44196.0</v>
       </c>
       <c r="D1" s="2">
-        <v>43921.0</v>
+        <v>43830.0</v>
       </c>
       <c r="E1" s="2">
-        <v>43555.0</v>
+        <v>43465.0</v>
       </c>
       <c r="F1" s="2">
-        <v>43190.0</v>
+        <v>43100.0</v>
       </c>
       <c r="G1" s="2">
-        <v>42825.0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>42460.0</v>
-      </c>
-      <c r="I1" s="2">
-        <v>42094.0</v>
-      </c>
-      <c r="J1" s="2">
-        <v>41729.0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>41364.0</v>
+        <v>42735.0</v>
       </c>
     </row>
     <row r="2">
@@ -130,34 +114,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>34.9839</v>
+        <v>60.1031</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>27.4492</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>23.9803</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>36.178</v>
+        <v>0.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>46.6168</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>41.7946</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>17.1804</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>49.8443</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>50.4785</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>50.4785</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -167,33 +139,21 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.1788</v>
+        <v>4.9556</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5.5965</v>
+        <v>23.2298</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>7.0976</v>
+        <v>10.105</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>8.3113</v>
+        <v>8.7266</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>11.3649</v>
+        <v>0.0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>11.6909</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>12.384</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>15.8246</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -204,34 +164,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0</v>
+        <v>18.3086</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>50.7756</v>
+        <v>49.1765</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>74.1759</v>
+        <v>20.6426</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>78.41</v>
+        <v>14.7392</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>49.6919</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>47.6547</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>37.911</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>49.336</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>24.3697</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>24.3697</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -241,34 +189,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-327.6485</v>
+        <v>28.1557</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>172.0611</v>
+        <v>89.3737</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>-4087.3862</v>
+        <v>31.2913</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>144.2201</v>
+        <v>17.5414</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>156.574</v>
+        <v>262.628</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>163.119</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>235.1764</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>208.0555</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>125.8355</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>125.8355</v>
+        <v>262.628</v>
       </c>
     </row>
     <row r="6">
@@ -278,34 +214,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1.7329</v>
+        <v>6.1988</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3.7344</v>
+        <v>22.9657</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4.1557</v>
+        <v>12.358</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5.1466</v>
+        <v>6.0827</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>6.517</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>5.762</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>5.0195</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>7.6608</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>24.9149</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>24.9149</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -315,34 +239,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2.499</v>
+        <v>6.2572</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5.6432</v>
+        <v>23.4635</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6.7898</v>
+        <v>13.4459</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>11.3742</v>
+        <v>7.0486</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>11.9783</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>10.4595</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>7.8459</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>11.3981</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>88.3434</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>88.3434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -352,33 +264,21 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1.7671</v>
+        <v>3.4678</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5.0814</v>
+        <v>21.1648</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6.6008</v>
+        <v>8.0344</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>8.1059</v>
+        <v>5.8173</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>11.013</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>11.3009</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>11.798</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>14.8312</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -389,33 +289,21 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>15.9046</v>
+        <v>47.239</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>40.6423</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>36.5701</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>53.5111</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>39.4821</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>37.2229</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>40.3715</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>44.9839</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -426,34 +314,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10.552</v>
+        <v>11.319</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>15.7248</v>
+        <v>44.6555</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>18.6284</v>
+        <v>16.3399</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>20.2332</v>
+        <v>9.8253</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>22.0194</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>22.2668</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>20.9941</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>27.4206</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>21.9494</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>21.9494</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -463,34 +339,22 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-27.8282</v>
+        <v>12.8117</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>46.1019</v>
+        <v>44.8051</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>68.9831</v>
+        <v>16.4128</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>76.4726</v>
+        <v>9.8253</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>48.153</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>46.0651</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>36.1169</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>46.2389</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>24.3007</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>24.3007</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -500,34 +364,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1.4689</v>
+        <v>1.6802</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1.5253</v>
+        <v>1.721</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.7593</v>
+        <v>1.5743</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1.2034</v>
+        <v>1.619</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1.7839</v>
+        <v>1.0744</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.8745</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>2.4847</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>3.2338</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1.3374</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>1.542</v>
+        <v>1.2255</v>
       </c>
     </row>
     <row r="13">
@@ -537,34 +389,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1.6638</v>
+        <v>1.7167</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1.7049</v>
+        <v>1.7825</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.9139</v>
+        <v>1.595</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1.3014</v>
+        <v>1.6581</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1.8913</v>
+        <v>1.0849</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.9464</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>2.5761</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>3.582</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1.8145</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1.7987</v>
+        <v>1.2353</v>
       </c>
     </row>
     <row r="14">
@@ -574,34 +414,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-2.4587</v>
+        <v>-16.0559</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-2.6856</v>
+        <v>14.0738</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-1.884</v>
+        <v>7.8998</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-0.8219</v>
+        <v>3.7049</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-0.9592</v>
+        <v>21.0281</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>-1.6349</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>-2.7308</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>-0.3351</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>-0.7668</v>
+        <v>5.4186</v>
       </c>
     </row>
     <row r="15">
@@ -611,34 +439,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.0834</v>
+        <v>0.0674</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.0882</v>
+        <v>0.1041</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0955</v>
+        <v>0.0818</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1392</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1751</v>
+        <v>0.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0.1585</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0.2059</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0.3682</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>0.4375</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -648,34 +464,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.1318</v>
+        <v>0.1626</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.1387</v>
+        <v>0.275</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1441</v>
+        <v>0.2525</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2207</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2877</v>
+        <v>0.0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2857</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.2315</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1.0091</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>2.5462</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -685,34 +489,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.5122</v>
+        <v>0.5585</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.4938</v>
+        <v>0.5169</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.4373</v>
+        <v>0.5033</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.4351</v>
+        <v>0.4542</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.4245</v>
+        <v>0.2339</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3533</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0.4154</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0.5993</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>0.6291</v>
+        <v>0.0661</v>
       </c>
     </row>
     <row r="18">
@@ -722,34 +514,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2.3041</v>
+        <v>3.705</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1.5421</v>
+        <v>-3.9272</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.21</v>
+        <v>-2.1271</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1.7234</v>
+        <v>-0.7543</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.9562</v>
+        <v>-0.6326</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.8392</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.7954</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>1.7066</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1.143</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>1.7226</v>
+        <v>-2.7026</v>
       </c>
     </row>
     <row r="19">
@@ -759,34 +539,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-1.1095</v>
+        <v>-1.7822</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-0.8937</v>
+        <v>-0.066</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.7717</v>
+        <v>-0.0423</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-1.3389</v>
+        <v>-0.0549</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-1.355</v>
+        <v>-3.7784</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-1.2273</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>-1.6189</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>-1.7458</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>-2.8839</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>-2.36</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -796,34 +564,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.2797</v>
+        <v>0.837</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.325</v>
+        <v>3.2117</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.4104</v>
+        <v>15.4553</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.4028</v>
+        <v>17.0929</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.3311</v>
+        <v>0.2441</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.7074</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0.4915</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0.2967</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>0.2451</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -850,18 +606,6 @@
       <c r="G21" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -870,34 +614,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.0587</v>
+        <v>0.116</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.1599</v>
+        <v>-0.1724</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.1974</v>
+        <v>-0.3188</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0.1629</v>
+        <v>-1.1613</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.1755</v>
+        <v>0.7256</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.1487</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.3458</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0.2572</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1.4922</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>0.4946</v>
+        <v>0.4601</v>
       </c>
     </row>
     <row r="23">
@@ -907,34 +639,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.0372</v>
+        <v>0.0462</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.1035</v>
+        <v>-0.0624</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.1281</v>
+        <v>-0.1163</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.1011</v>
+        <v>-0.3565</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.1085</v>
+        <v>-0.0669</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.0975</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0.2268</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0.1317</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0.2634</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>0.1532</v>
+        <v>-0.0426</v>
       </c>
     </row>
     <row r="24">
@@ -944,34 +664,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.0821</v>
+        <v>0.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.0795</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.0932</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0.0672</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.1252</v>
+        <v>0.0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.1158</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0.0971</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0.1783</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0.4909</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>3.6625</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -981,34 +689,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-0.017</v>
+        <v>0.1108</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.0484</v>
+        <v>0.1295</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.0562</v>
+        <v>0.1485</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.0618</v>
+        <v>0.1358</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.0757</v>
+        <v>0.0267</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.1062</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0.1018</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0.0948</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0.1578</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0.1407</v>
+        <v>0.4663</v>
       </c>
     </row>
     <row r="26">
@@ -1018,34 +714,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.1453</v>
+        <v>0.112</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.3636</v>
+        <v>-0.109</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.4601</v>
+        <v>-0.2555</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.5665</v>
+        <v>-0.6412</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.3412</v>
+        <v>-0.4806</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.4008</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0.7471</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0.2165</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0.6405</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>0.3659</v>
+        <v>-1.0208</v>
       </c>
     </row>
     <row r="27">
@@ -1055,34 +739,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>13.5105</v>
+        <v>19.2177</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>14.3083</v>
+        <v>14.5604</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>11.696</v>
+        <v>12.829</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>10.9462</v>
+        <v>14.1933</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>10.2222</v>
+        <v>5.4697</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>8.9405</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>6.099</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>0.0</v>
+        <v>1.3945</v>
       </c>
     </row>
     <row r="28">
@@ -1092,34 +764,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>45.2934</v>
+        <v>0.5518</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>50.5592</v>
+        <v>0.4717</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>18.4296</v>
+        <v>0.2673</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2099</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>8.0019</v>
+        <v>0.1378</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>8.378</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>5.1652</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="29">
@@ -1129,33 +789,21 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>18.9177</v>
+        <v>37.5642</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>20.2566</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>23.7014</v>
+        <v>0.0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>30.979</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>17.1458</v>
+        <v>0.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1166,34 +814,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>30.4641</v>
+        <v>19.1295</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>28.9684</v>
+        <v>30.4901</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>33.5366</v>
+        <v>41.3718</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>37.0206</v>
+        <v>35.2375</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>41.756</v>
+        <v>111.1456</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>51.4598</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>44.2565</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>0.0</v>
+        <v>81.6447</v>
       </c>
     </row>
     <row r="31">
@@ -1203,34 +839,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>8.8574</v>
+        <v>719.255</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>9.6093</v>
+        <v>1016.9564</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>7.7853</v>
+        <v>1722.1595</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.0</v>
+        <v>2173.3235</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>74.3693</v>
+        <v>4785.9195</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>33.2917</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>87.331</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>0.0</v>
+        <v>679.6552</v>
       </c>
     </row>
     <row r="32">
@@ -1240,33 +864,21 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20.3486</v>
+        <v>0.1467</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>24.1428</v>
+        <v>32.4902</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>19.1762</v>
+        <v>0.0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>15.0335</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>15.4136</v>
+        <v>0.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1277,34 +889,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.065</v>
+        <v>0.0957</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.0798</v>
+        <v>0.1158</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.0845</v>
+        <v>0.1284</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.0993</v>
+        <v>0.0851</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.0909</v>
+        <v>0.0741</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.1078</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0.1363</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0.1399</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>0.1088</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="34">
@@ -1314,34 +914,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.1779</v>
+        <v>0.4933</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.1906</v>
+        <v>0.7178</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.1547</v>
+        <v>0.9446</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0.1716</v>
+        <v>1.5166</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.174</v>
+        <v>0.8473</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.1804</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0.2028</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>0.1668</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>0.1884</v>
+        <v>0.3684</v>
       </c>
     </row>
     <row r="35">
@@ -1351,34 +939,22 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.1939</v>
+        <v>0.0039</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.2151</v>
+        <v>0.008</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.2572</v>
+        <v>0.0262</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0.3453</v>
+        <v>0.0597</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.2775</v>
+        <v>0.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.2846</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0.2467</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0.2021</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>0.1377</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>0.2121</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -1388,34 +964,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.0281</v>
+        <v>0.0508</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.0699</v>
+        <v>0.0607</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.0623</v>
+        <v>0.0849</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0.0995</v>
+        <v>0.5215</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.0802</v>
+        <v>0.0077</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.1011</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0.0541</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>0.0366</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1425,34 +989,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.0083</v>
+        <v>0.1177</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.007</v>
+        <v>0.0368</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.0057</v>
+        <v>0.0709</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>-0.0275</v>
+        <v>0.14</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>-0.0084</v>
+        <v>-0.0509</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-0.0017</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.0366</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>-0.0093</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>-0.0093</v>
+        <v>-0.0509</v>
       </c>
     </row>
     <row r="38">
@@ -1462,33 +1014,21 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>66.2824</v>
+        <v>14.327</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>106.2244</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>92.4095</v>
+        <v>0.0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>62.8817</v>
+        <v>0.0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>48.3353</v>
+        <v>0.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>32.9598</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>40.3678</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>20.2059</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K38" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1499,34 +1039,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.0286</v>
+        <v>0.0166</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.0364</v>
+        <v>-0.005</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.0417</v>
+        <v>-0.0222</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0.0276</v>
+        <v>-0.1123</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.0215</v>
+        <v>-0.0764</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.0582</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0.0198</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>0.0198</v>
+        <v>-0.0764</v>
       </c>
     </row>
     <row r="40">
@@ -1536,34 +1064,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>-0.0291</v>
+        <v>0.0546</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.0197</v>
+        <v>0.0203</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.0135</v>
+        <v>0.0484</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.0128</v>
+        <v>0.0678</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.0201</v>
+        <v>0.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0.0264</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>0.041</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1573,34 +1089,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>49.9367</v>
+        <v>11.7645</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>40.5125</v>
+        <v>7.6484</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>27.4007</v>
+        <v>3.7427</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>21.7643</v>
+        <v>2.5715</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>15.6279</v>
+        <v>0.6302</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>9.2234</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>6.3816</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>5.2602</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>3.891</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>2.4207</v>
+        <v>0.0686</v>
       </c>
     </row>
     <row r="42">
@@ -1610,34 +1114,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>8.357</v>
+        <v>3.6042</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>13.0914</v>
+        <v>3.625</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>9.7091</v>
+        <v>1.8403</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>8.7194</v>
+        <v>1.5225</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>7.8163</v>
+        <v>0.114</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>4.6811</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>3.5862</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>2.8451</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>1.9549</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>1.0153</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="43">
@@ -1647,34 +1139,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>-3.1213</v>
+        <v>-0.4116</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>-2.4182</v>
+        <v>-0.0055</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>-1.7601</v>
+        <v>-0.0033</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>-2.8667</v>
+        <v>-0.0053</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>-1.8629</v>
+        <v>-0.0031</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>-1.0225</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>-0.6843</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>-0.5319</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>-0.354</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>-0.1543</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1684,34 +1164,22 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>5.2357</v>
+        <v>3.1926</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>10.6732</v>
+        <v>3.6195</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>7.949</v>
+        <v>1.837</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>5.8527</v>
+        <v>1.5171</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>5.9534</v>
+        <v>0.1109</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>3.6586</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>2.902</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>2.3132</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>1.6009</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>0.8609</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="45">
@@ -1721,34 +1189,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>28.8324</v>
+        <v>19.1037</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>29.2935</v>
+        <v>17.9208</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>20.3576</v>
+        <v>8.5223</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>12.2256</v>
+        <v>7.4812</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>13.3404</v>
+        <v>4.5092</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>8.9426</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>7.3849</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>8.8558</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>3.7053</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>2.5946</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="46">
@@ -1758,34 +1214,22 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>62.7847</v>
+        <v>9.4059</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>60.7136</v>
+        <v>7.7363</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>46.7983</v>
+        <v>3.0604</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>35.1477</v>
+        <v>3.6891</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>27.2534</v>
+        <v>-0.3584</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>18.714</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>15.7445</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>10.8656</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>3.0166</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>0.7685</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="47">
@@ -1795,34 +1239,22 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>8.2742</v>
+        <v>1.5297</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>8.4237</v>
+        <v>2.1273</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>6.7427</v>
+        <v>0.7727</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>7.7562</v>
+        <v>0.0</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>7.8402</v>
+        <v>0.0</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>5.3458</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>3.6448</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>3.6303</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>3.0441</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>1.9568</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1832,34 +1264,22 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>62.7847</v>
+        <v>9.4059</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>60.7136</v>
+        <v>7.7363</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>46.7983</v>
+        <v>3.0604</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>35.1477</v>
+        <v>3.6891</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>27.2534</v>
+        <v>-0.3584</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>18.714</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>15.7445</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>10.8656</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>3.0166</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>0.7685</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="49">
@@ -1869,34 +1289,22 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>14109000000.0</v>
+        <v>4000907000.0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>28843000000.0</v>
+        <v>4314734000.0</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>20883000000.0</v>
+        <v>2125027000.0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>15100000000.0</v>
+        <v>1125829000.0</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>15199000000.0</v>
+        <v>48928000.0</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>9121000000.0</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>7133000000.0</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>5406000000.0</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>3482000000.0</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>1975000000.0</v>
+        <v>132425600.0</v>
       </c>
     </row>
     <row r="50">
@@ -1906,34 +1314,22 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>40186000000.0</v>
+        <v>10541920000.0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>40600000000.0</v>
+        <v>10060050000.0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>31218000000.0</v>
+        <v>3911865000.0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>9328000000.0</v>
+        <v>2331685000.0</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>19298000000.0</v>
+        <v>163939000.0</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>12893000000.0</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>12721000000.0</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>16525000000.0</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>4908000000.0</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>3083000000.0</v>
+        <v>48000000.0</v>
       </c>
     </row>
     <row r="51">
@@ -1943,34 +1339,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>-8411000000.0</v>
+        <v>-515776000.0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>-6535000000.0</v>
+        <v>-6589000.0</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>-4624000000.0</v>
+        <v>-3873000.0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>-7396000000.0</v>
+        <v>-3969000.0</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>-4756000000.0</v>
+        <v>-1364000.0</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>-2549000000.0</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>-1682000000.0</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>-1243000000.0</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>-770000000.0</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>-354000000.0</v>
+        <v>-346400.0</v>
       </c>
     </row>
     <row r="52">
@@ -1980,34 +1364,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2448000000.0</v>
+        <v>8601510000.0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>4289000000.0</v>
+        <v>7784090000.0</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>2893000000.0</v>
+        <v>3101347000.0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>-12848000000.0</v>
+        <v>2331685000.0</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>-3799000000.0</v>
+        <v>-186302000.0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>-460000000.0</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>2971000000.0</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>7112000000.0</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>-486000000.0</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>-1555000000.0</v>
+        <v>48000000.0</v>
       </c>
     </row>
     <row r="53">
@@ -2017,40 +1389,22 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>9960174706.7265</v>
+        <v>767146500.0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>7651498152.5304</v>
+        <v>626188500.0</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>6154675570.1664</v>
+        <v>337486000.0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>5129808917.1975</v>
+        <v>134445000.0</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>3903079376.0093</v>
+        <v>50834000.0</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>2571882278.3033</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>2571882278.3033</v>
-      </c>
-      <c r="I53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>54500000.0</v>
       </c>
     </row>
     <row r="54">
@@ -2060,42 +1414,22 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1878770889.1157</v>
+        <v>9020000000.0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1271558018.8484</v>
+        <v>6264000000.0</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2163800280.4049</v>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>3406000000.0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>2013500000.0</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>2132628740.3993</v>
+        <v>836500000.0</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1031515290.2741</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1031515290.2741</v>
-      </c>
-      <c r="I54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>836500000.0</v>
       </c>
     </row>
     <row r="55">
@@ -2105,41 +1439,29 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>4498221127.5315</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>3173738863.2873</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1682516539.963</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>995286624.2039</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>995286624.2039</v>
+        <v>132500000.0</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K55" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2152,34 +1474,22 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>262722500000.0</v>
+        <v>26394785000.0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>221703500000.0</v>
+        <v>17639380000.0</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>164615000000.0</v>
+        <v>8602760500.0</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>129063500000.0</v>
+        <v>4201605000.0</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>93978000000.0</v>
+        <v>1188819500.0</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>65075500000.0</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>48863500000.0</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>29593500000.0</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>14121000000.0</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>8827043000.0</v>
+        <v>1150000000.0</v>
       </c>
     </row>
     <row r="57">
@@ -2189,34 +1499,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>166630000000.0</v>
+        <v>10504734000.0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>143508000000.0</v>
+        <v>6381329000.0</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>106813000000.0</v>
+        <v>3138965500.0</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>80129500000.0</v>
+        <v>1289744500.0</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>58116000000.0</v>
+        <v>-109571000.0</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>42677000000.0</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>32046500000.0</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>15148000000.0</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>2493000000.0</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>2733688500.0</v>
+        <v>-106500000.0</v>
       </c>
     </row>
     <row r="58">
@@ -2226,33 +1524,21 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>15.9046</v>
+        <v>47.239</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>40.6423</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>36.5701</v>
+        <v>0.0</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>53.5111</v>
+        <v>0.0</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>39.4821</v>
+        <v>0.0</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>37.2229</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>40.3715</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>48.4893</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K58" s="0" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2263,34 +1549,22 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.035</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.0597</v>
+        <v>0.0007</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.0642</v>
+        <v>0.0009</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>0.1317</v>
+        <v>0.0021</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.1192</v>
+        <v>0.0049</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.1109</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0.1072</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>0.1011</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>0.0637</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -2300,34 +1574,22 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.0726</v>
+        <v>0.0827</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.2095</v>
+        <v>-0.1207</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.2928</v>
+        <v>-0.2312</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>0.2325</v>
+        <v>-0.7849</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0.2557</v>
+        <v>-0.2859</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.2759</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>0.7066</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>0.3169</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>0.4396</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>0.2435</v>
+        <v>-0.6447</v>
       </c>
     </row>
   </sheetData>

--- a/data/metrics.xlsx
+++ b/data/metrics.xlsx
@@ -214,7 +214,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6.1988</v>
+        <v>6.1982</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>22.9657</v>
@@ -239,7 +239,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6.2572</v>
+        <v>6.2567</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>23.4635</v>
@@ -264,7 +264,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3.4678</v>
+        <v>3.4618</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>21.1648</v>
@@ -289,7 +289,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>47.239</v>
+        <v>47.1575</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.0</v>
@@ -314,7 +314,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>11.319</v>
+        <v>11.2995</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>44.6555</v>
@@ -339,7 +339,7 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>12.8117</v>
+        <v>12.7896</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>44.8051</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>14.327</v>
+        <v>14.3277</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0.0</v>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>47.239</v>
+        <v>47.1575</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0.0</v>

--- a/data/metrics.xlsx
+++ b/data/metrics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="PDD" r:id="rId4"/>
+    <sheet sheetId="1" name="PINS" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -67,15 +67,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="62.7"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
@@ -89,22 +89,22 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44926.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44561.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43100.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>42735.0</v>
       </c>
     </row>
     <row r="2">
@@ -114,10 +114,10 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60.1031</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0</v>
+        <v>72.7</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.0</v>
@@ -139,22 +139,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4.9556</v>
+        <v>5.4374</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>23.2298</v>
+        <v>9.0244</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>10.105</v>
+        <v>23.2143</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>8.7266</v>
+        <v>6.8585</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.0</v>
+        <v>3.7596</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.0</v>
+        <v>3.7596</v>
       </c>
     </row>
     <row r="4">
@@ -164,16 +164,16 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>18.3086</v>
+        <v>30.9068</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>49.1765</v>
+        <v>30.722</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>20.6426</v>
+        <v>3439.2821</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>14.7392</v>
+        <v>0.0</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.0</v>
@@ -189,22 +189,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>28.1557</v>
+        <v>211.26</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>89.3737</v>
+        <v>103.3205</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>31.2913</v>
+        <v>390.222</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>17.5414</v>
+        <v>820.0059</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>262.628</v>
+        <v>93.812</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>262.628</v>
+        <v>93.812</v>
       </c>
     </row>
     <row r="6">
@@ -214,16 +214,16 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6.1982</v>
+        <v>4.6436</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>22.9657</v>
+        <v>7.6562</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>12.358</v>
+        <v>17.5233</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6.0827</v>
+        <v>3.8729</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.0</v>
@@ -239,16 +239,16 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6.2567</v>
+        <v>4.8272</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>23.4635</v>
+        <v>7.8133</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>13.4459</v>
+        <v>17.63</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>7.0486</v>
+        <v>3.901</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.0</v>
@@ -264,22 +264,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3.4618</v>
+        <v>4.5549</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>21.1648</v>
+        <v>8.1597</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>8.0344</v>
+        <v>22.2824</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5.8173</v>
+        <v>5.5517</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.0</v>
+        <v>3.179</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.0</v>
+        <v>3.179</v>
       </c>
     </row>
     <row r="9">
@@ -289,10 +289,10 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>47.1575</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.0</v>
+        <v>59.4762</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.0</v>
@@ -314,22 +314,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>11.2995</v>
+        <v>24.4532</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>44.6555</v>
+        <v>27.451</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>16.3399</v>
+        <v>1308.4192</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>9.8253</v>
+        <v>9656.4258</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.0</v>
+        <v>-64.4267</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.0</v>
+        <v>-64.4267</v>
       </c>
     </row>
     <row r="11">
@@ -339,22 +339,22 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>12.7896</v>
+        <v>25.8906</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>44.8051</v>
+        <v>27.7784</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>16.4128</v>
+        <v>3301.2246</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>9.8253</v>
+        <v>-191.5194</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.0</v>
+        <v>-44.9579</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.0</v>
+        <v>-44.9579</v>
       </c>
     </row>
     <row r="12">
@@ -364,22 +364,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1.6802</v>
+        <v>8.8817</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1.721</v>
+        <v>12.0608</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.5743</v>
+        <v>11.3461</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1.619</v>
+        <v>11.5222</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1.0744</v>
+        <v>7.837</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.2255</v>
+        <v>10.6125</v>
       </c>
     </row>
     <row r="13">
@@ -389,22 +389,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1.7167</v>
+        <v>9.0786</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1.7825</v>
+        <v>12.2459</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.595</v>
+        <v>11.5097</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1.6581</v>
+        <v>11.7352</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1.0849</v>
+        <v>8.2023</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.2353</v>
+        <v>11.0875</v>
       </c>
     </row>
     <row r="14">
@@ -414,22 +414,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-16.0559</v>
+        <v>44.7421</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>14.0738</v>
+        <v>-6.3025</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>7.8998</v>
+        <v>14.9485</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>3.7049</v>
+        <v>1.0972</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>21.0281</v>
+        <v>8.8525</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>5.4186</v>
+        <v>5.8457</v>
       </c>
     </row>
     <row r="15">
@@ -439,19 +439,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.0674</v>
+        <v>0.0593</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.1041</v>
+        <v>0.071</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0818</v>
+        <v>0.0701</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0919</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0</v>
+        <v>0.131</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.0</v>
@@ -464,19 +464,19 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.1626</v>
+        <v>0.0698</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.275</v>
+        <v>0.0826</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2525</v>
+        <v>0.0816</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1087</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1734</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.0</v>
@@ -489,22 +489,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.5585</v>
+        <v>0.7575</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.5169</v>
+        <v>0.8388</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.5033</v>
+        <v>0.6767</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.4542</v>
+        <v>0.6445</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2339</v>
+        <v>1.3115</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0661</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="18">
@@ -514,22 +514,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3.705</v>
+        <v>-4.8851</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-3.9272</v>
+        <v>2.3793</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-2.1271</v>
+        <v>-0.2246</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-0.7543</v>
+        <v>-0.0005</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.6326</v>
+        <v>0.9586</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-2.7026</v>
+        <v>0.7914</v>
       </c>
     </row>
     <row r="19">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-1.7822</v>
+        <v>-0.6235</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-0.066</v>
+        <v>-0.3284</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.0423</v>
+        <v>-0.4704</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.0549</v>
+        <v>-1.2156</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-3.7784</v>
+        <v>-1.064</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0</v>
+        <v>-2.553</v>
       </c>
     </row>
     <row r="20">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.837</v>
+        <v>0.7803</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>3.2117</v>
+        <v>0.515</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>15.4553</v>
+        <v>0.5332</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>17.0929</v>
+        <v>0.3021</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.2441</v>
+        <v>0.2559</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="21">
@@ -614,22 +614,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.116</v>
+        <v>-0.0304</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-0.1724</v>
+        <v>0.1198</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-0.3188</v>
+        <v>-0.0602</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-1.1613</v>
+        <v>-1.9052</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.7256</v>
+        <v>0.1104</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.4601</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="23">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.0462</v>
+        <v>-0.026</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-0.0624</v>
+        <v>0.103</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-0.1163</v>
+        <v>-0.0513</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-0.3565</v>
+        <v>-0.7678</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-0.0669</v>
+        <v>-0.1093</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>-0.0426</v>
+        <v>-0.1081</v>
       </c>
     </row>
     <row r="24">
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0782</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2518</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.1339</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0.0</v>
+        <v>-1.6367</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.1185</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0.0</v>
@@ -689,22 +689,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.1108</v>
+        <v>0.066</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.1295</v>
+        <v>0.1212</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.1485</v>
+        <v>-0.0097</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.1358</v>
+        <v>-0.0231</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.0267</v>
+        <v>-0.086</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.4663</v>
+        <v>-0.2667</v>
       </c>
     </row>
     <row r="26">
@@ -714,22 +714,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.112</v>
+        <v>-0.0306</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-0.109</v>
+        <v>0.1064</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>-0.2555</v>
+        <v>-0.0577</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-0.6412</v>
+        <v>-0.6865</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>-0.4806</v>
+        <v>-0.073</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>-1.0208</v>
+        <v>-0.1455</v>
       </c>
     </row>
     <row r="27">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>19.2177</v>
+        <v>4.199</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>14.5604</v>
+        <v>4.2364</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>12.829</v>
+        <v>3.8465</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>14.1933</v>
+        <v>4.2458</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>5.4697</v>
+        <v>4.2121</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.3945</v>
+        <v>2.6343</v>
       </c>
     </row>
     <row r="28">
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.5518</v>
+        <v>12.8528</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.4717</v>
+        <v>15.7615</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2673</v>
+        <v>10.7213</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2099</v>
+        <v>12.7039</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1378</v>
+        <v>12.9992</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.104</v>
+        <v>9.6575</v>
       </c>
     </row>
     <row r="29">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>37.5642</v>
+        <v>0.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>19.1295</v>
+        <v>88.761</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>30.4901</v>
+        <v>92.5027</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>41.3718</v>
+        <v>121.5618</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>35.2375</v>
+        <v>101.0482</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>111.1456</v>
+        <v>107.1593</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>81.6447</v>
+        <v>105.7519</v>
       </c>
     </row>
     <row r="31">
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>719.255</v>
+        <v>47.2899</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1016.9564</v>
+        <v>12.188</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1722.1595</v>
+        <v>40.2001</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2173.3235</v>
+        <v>34.9173</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>4785.9195</v>
+        <v>33.4943</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>679.6552</v>
+        <v>30.6441</v>
       </c>
     </row>
     <row r="32">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.1467</v>
+        <v>0.0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>32.4902</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0.0</v>
@@ -889,22 +889,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.0957</v>
+        <v>0.3386</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.1158</v>
+        <v>0.3027</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.3581</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.0851</v>
+        <v>1.0563</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.0741</v>
+        <v>0.3329</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.0526</v>
+        <v>0.4398</v>
       </c>
     </row>
     <row r="34">
@@ -914,22 +914,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.4933</v>
+        <v>0.4555</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.7178</v>
+        <v>0.3655</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.9446</v>
+        <v>0.4606</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1.5166</v>
+        <v>0.845</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.8473</v>
+        <v>0.4463</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.3684</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="35">
@@ -939,19 +939,19 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.0039</v>
+        <v>0.0323</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.008</v>
+        <v>0.0173</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.0262</v>
+        <v>0.0052</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0.0597</v>
+        <v>0.0061</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0122</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>0.0</v>
@@ -964,22 +964,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.0508</v>
+        <v>0.1774</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.0607</v>
+        <v>0.1611</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.0849</v>
+        <v>0.1897</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0.5215</v>
+        <v>1.2057</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.0077</v>
+        <v>0.0197</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="37">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.1177</v>
+        <v>0.1886</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.0368</v>
+        <v>0.1153</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.0709</v>
+        <v>0.0507</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0.14</v>
+        <v>0.2166</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>-0.0509</v>
+        <v>0.1729</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-0.0509</v>
+        <v>0.1729</v>
       </c>
     </row>
     <row r="38">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>14.3277</v>
+        <v>0.0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.0</v>
+        <v>7.3084</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0.0</v>
@@ -1039,22 +1039,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.0166</v>
+        <v>-0.0066</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>-0.005</v>
+        <v>0.0138</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>-0.0222</v>
+        <v>-0.0036</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-0.1123</v>
+        <v>-0.1738</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-0.0764</v>
+        <v>-0.0135</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>-0.0764</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="40">
@@ -1064,22 +1064,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.0546</v>
+        <v>0.0324</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.0203</v>
+        <v>0.0325</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.0484</v>
+        <v>0.0003</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.0678</v>
+        <v>-0.0042</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0188</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0188</v>
       </c>
     </row>
     <row r="41">
@@ -1089,22 +1089,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>11.7645</v>
+        <v>4.2098</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>7.6484</v>
+        <v>4.028</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3.7427</v>
+        <v>2.8388</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2.5715</v>
+        <v>2.7178</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.6302</v>
+        <v>5.948</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.0686</v>
+        <v>3.7361</v>
       </c>
     </row>
     <row r="42">
@@ -1114,22 +1114,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>3.6042</v>
+        <v>0.7048</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>3.625</v>
+        <v>1.1764</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1.8403</v>
+        <v>0.0483</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1.5225</v>
+        <v>0.0016</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.114</v>
+        <v>-0.475</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.1195</v>
+        <v>-0.8131</v>
       </c>
     </row>
     <row r="43">
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>-0.4116</v>
+        <v>-0.0435</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>-0.0055</v>
+        <v>-0.0141</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>-0.0033</v>
+        <v>-0.0292</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>-0.0053</v>
+        <v>-0.0803</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>-0.0031</v>
+        <v>-0.1746</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.3255</v>
       </c>
     </row>
     <row r="44">
@@ -1164,22 +1164,22 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3.1926</v>
+        <v>0.6613</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>3.6195</v>
+        <v>1.1623</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1.837</v>
+        <v>0.0192</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1.5171</v>
+        <v>-0.0788</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.1109</v>
+        <v>-0.6496</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.1195</v>
+        <v>-1.1386</v>
       </c>
     </row>
     <row r="45">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>19.1037</v>
+        <v>4.053</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>17.9208</v>
+        <v>3.875</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>8.5223</v>
+        <v>2.9522</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>7.4812</v>
+        <v>4.0748</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>4.5092</v>
+        <v>4.9399</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.2103</v>
+        <v>5.6257</v>
       </c>
     </row>
     <row r="46">
@@ -1214,22 +1214,22 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>9.4059</v>
+        <v>4.9294</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>7.7363</v>
+        <v>4.7478</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>3.0604</v>
+        <v>3.7607</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>3.6891</v>
+        <v>4.8129</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>-0.3584</v>
+        <v>6.8521</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.046</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,19 +1239,19 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1.5297</v>
+        <v>0.344</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>2.1273</v>
+        <v>0.3922</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.7727</v>
+        <v>0.3069</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.0</v>
+        <v>0.5232</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.0</v>
+        <v>1.1881</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>0.0</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>9.4059</v>
+        <v>4.9294</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>7.7363</v>
+        <v>4.7478</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>3.0604</v>
+        <v>3.7607</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>3.6891</v>
+        <v>4.8129</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>-0.3584</v>
+        <v>6.8521</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.046</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1289,22 +1289,22 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>4000907000.0</v>
+        <v>440218000.0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>4314734000.0</v>
+        <v>743876000.0</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2125027000.0</v>
+        <v>11425000.0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1125829000.0</v>
+        <v>-33126000.0</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>48928000.0</v>
+        <v>-82563000.0</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>132425600.0</v>
+        <v>-144105000.0</v>
       </c>
     </row>
     <row r="50">
@@ -1314,22 +1314,22 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10541920000.0</v>
+        <v>3074146000.0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>10060050000.0</v>
+        <v>2921757000.0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>3911865000.0</v>
+        <v>2152710000.0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>2331685000.0</v>
+        <v>1891077000.0</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>163939000.0</v>
+        <v>780925000.0</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>48000000.0</v>
+        <v>807000000.0</v>
       </c>
     </row>
     <row r="51">
@@ -1339,22 +1339,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>-515776000.0</v>
+        <v>-28984000.0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>-6589000.0</v>
+        <v>-9031000.0</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>-3873000.0</v>
+        <v>-17401000.0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>-3969000.0</v>
+        <v>-33783000.0</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>-1364000.0</v>
+        <v>-22194000.0</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>-346400.0</v>
+        <v>-41192000.0</v>
       </c>
     </row>
     <row r="52">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>8601510000.0</v>
+        <v>2873601000.0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>7784090000.0</v>
+        <v>2683068000.0</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>3101347000.0</v>
+        <v>1990453000.0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2331685000.0</v>
+        <v>1697622000.0</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>-186302000.0</v>
+        <v>607457000.0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>48000000.0</v>
+        <v>887000000.0</v>
       </c>
     </row>
     <row r="53">
@@ -1389,22 +1389,22 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>767146500.0</v>
+        <v>667443500.0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>626188500.0</v>
+        <v>608544000.0</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>337486000.0</v>
+        <v>440050000.0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>134445000.0</v>
+        <v>269149500.0</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>50834000.0</v>
+        <v>179466000.0</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>54500000.0</v>
+        <v>179500000.0</v>
       </c>
     </row>
     <row r="54">
@@ -1414,182 +1414,147 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>9020000000.0</v>
+        <v>52797500.0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>6264000000.0</v>
+        <v>33583000.0</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>3406000000.0</v>
+        <v>41912500.0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>2013500000.0</v>
+        <v>28251500.0</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>836500000.0</v>
+        <v>18584500.0</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>836500000.0</v>
+        <v>18500000.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Average Inventory</t>
+          <t>Average Assets</t>
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>132500000.0</v>
-      </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>3699984000.0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3073348500.0</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2501388000.0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1773024000.0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>576365500.0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1203500000.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Average Assets</t>
+          <t>Average Common Equity</t>
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>26394785000.0</v>
+        <v>3160198500.0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>17639380000.0</v>
+        <v>2640557000.0</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>8602760500.0</v>
+        <v>2133038000.0</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>4201605000.0</v>
+        <v>714571000.0</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1188819500.0</v>
+        <v>-570281500.0</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1150000000.0</v>
+        <v>-570500000.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>Average Common Equity</t>
+          <t>EV/EBIT</t>
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>10504734000.0</v>
+        <v>0.0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>6381329000.0</v>
+        <v>64.4905</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>3138965500.0</v>
+        <v>0.0</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1289744500.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>-109571000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>-106500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>EV/EBIT</t>
+          <t>Capex to Sales</t>
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>47.1575</v>
+        <v>0.0103</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0035</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0103</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0296</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0294</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Capex to Sales</t>
+          <t>Net Profit Margin</t>
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.035</v>
+        <v>-0.0343</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.0007</v>
+        <v>0.1227</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.0009</v>
+        <v>-0.0758</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>0.0021</v>
+        <v>-1.1913</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.0049</v>
+        <v>-0.0833</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="inlineStr">
-        <is>
-          <t>Net Profit Margin</t>
-        </is>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>0.0827</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>-0.1207</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>-0.2312</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>-0.7849</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>-0.2859</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>-0.6447</v>
+        <v>-0.275</v>
       </c>
     </row>
   </sheetData>

--- a/data/metrics.xlsx
+++ b/data/metrics.xlsx
@@ -164,10 +164,10 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>30.9068</v>
+        <v>34.616</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>30.722</v>
+        <v>31.2755</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3439.2821</v>
@@ -189,10 +189,10 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>211.26</v>
+        <v>261.4274</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>103.3205</v>
+        <v>109.8591</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>390.222</v>
@@ -214,10 +214,10 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4.6436</v>
+        <v>4.6431</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>7.6562</v>
+        <v>7.6555</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>17.5233</v>
@@ -239,10 +239,10 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4.8272</v>
+        <v>4.8269</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7.8133</v>
+        <v>7.8123</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>17.63</v>
@@ -264,10 +264,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4.5549</v>
+        <v>4.556</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8.1597</v>
+        <v>8.1594</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>22.2824</v>
@@ -292,7 +292,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>59.4762</v>
+        <v>59.4737</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.0</v>
@@ -314,10 +314,10 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>24.4532</v>
+        <v>27.2135</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>27.451</v>
+        <v>27.9385</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1308.4192</v>
@@ -339,10 +339,10 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>25.8906</v>
+        <v>29.0052</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>27.7784</v>
+        <v>28.2777</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3301.2246</v>
@@ -992,7 +992,7 @@
         <v>0.1886</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.1153</v>
+        <v>0.1154</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0.0507</v>
@@ -1017,7 +1017,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>7.3084</v>
+        <v>7.3087</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0.0</v>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.0324</v>
+        <v>0.0289</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.0325</v>
+        <v>0.032</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0.0003</v>
@@ -1492,7 +1492,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>64.4905</v>
+        <v>64.4878</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>0.0</v>
